--- a/opinions/parsed_wiki_data/2009.xlsx
+++ b/opinions/parsed_wiki_data/2009.xlsx
@@ -5017,7 +5017,7 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t xml:space="preserve">dissent2 </t>
+          <t>dissent2</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">

--- a/opinions/parsed_wiki_data/2009.xlsx
+++ b/opinions/parsed_wiki_data/2009.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,37 +597,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,37 +697,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -742,32 +742,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -787,27 +787,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -817,17 +817,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -837,32 +837,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,42 +887,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -937,47 +937,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -987,32 +987,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1087,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1137,22 +1137,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1162,22 +1162,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1187,47 +1187,47 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1237,27 +1237,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1287,37 +1287,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,32 +1347,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1407,27 +1407,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1442,27 +1442,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1487,47 +1487,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1537,22 +1537,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1562,22 +1562,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1587,47 +1587,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1667,17 +1667,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority dissent joinmajority partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1687,32 +1687,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1737,12 +1737,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1752,32 +1752,32 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,47 +1787,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1852,22 +1852,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1917,12 +1917,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,37 +1937,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1987,22 +1987,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2012,12 +2012,12 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2037,42 +2037,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2087,22 +2087,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2112,22 +2112,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2147,32 +2147,32 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2187,27 +2187,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2237,37 +2237,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinconcurrence</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2302,22 +2302,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2392,32 +2392,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2442,27 +2442,27 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,37 +2487,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinconcurrencedissent</t>
+          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2537,17 +2537,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2557,22 +2557,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2587,32 +2587,32 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,27 +2637,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2667,7 +2667,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2687,17 +2687,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2707,27 +2707,27 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2747,37 +2747,37 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2787,42 +2787,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2857,27 +2857,27 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2887,17 +2887,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2907,27 +2907,27 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>partjoindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2937,22 +2937,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2972,12 +2972,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2987,47 +2987,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3047,37 +3047,37 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3102,32 +3102,32 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3137,17 +3137,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3157,27 +3157,27 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3187,22 +3187,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3212,22 +3212,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3247,22 +3247,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3287,47 +3287,47 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3337,12 +3337,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3352,32 +3352,32 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3397,37 +3397,37 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3437,12 +3437,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3452,32 +3452,32 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3487,17 +3487,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3507,22 +3507,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3537,27 +3537,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>joinconcurrence2</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>concurrence3</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3587,37 +3587,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3702,22 +3702,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3737,12 +3737,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3752,27 +3752,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3787,47 +3787,47 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3847,37 +3847,37 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3887,22 +3887,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3912,22 +3912,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3942,27 +3942,27 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3987,12 +3987,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4002,17 +4002,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>partjoindissent</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4057,27 +4057,27 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4102,32 +4102,32 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4157,27 +4157,27 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4187,22 +4187,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4217,17 +4217,17 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4247,27 +4247,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4292,27 +4292,27 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4322,12 +4322,12 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4352,32 +4352,32 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4387,17 +4387,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4407,22 +4407,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4447,22 +4447,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4492,17 +4492,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4512,22 +4512,22 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -4537,12 +4537,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -4552,27 +4552,27 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4587,22 +4587,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4612,22 +4612,22 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
     </row>
@@ -4637,17 +4637,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4662,22 +4662,22 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -4687,27 +4687,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4717,17 +4717,17 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
         </is>
       </c>
     </row>
@@ -4737,27 +4737,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4787,47 +4787,47 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4842,27 +4842,27 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4872,12 +4872,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4887,17 +4887,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>partjoinplurality</t>
+          <t>concurrence partjoinconcurrence joinplurality partjoinplurality plurality joinconcurrence</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4907,27 +4907,27 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -4937,27 +4937,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4987,37 +4987,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2009.xlsx
+++ b/opinions/parsed_wiki_data/2009.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,37 +597,37 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,7 +687,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -697,32 +697,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -742,32 +742,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -787,27 +787,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -817,17 +817,17 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -837,32 +837,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,42 +887,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -937,47 +937,47 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -987,32 +987,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,17 +1047,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1067,17 +1067,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1097,17 +1097,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1162,22 +1162,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1212,12 +1212,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1237,27 +1237,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1287,37 +1287,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1357,22 +1357,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1407,27 +1407,27 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence dissent concurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinmajority majority partjoinconcurrence partjoinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1457,12 +1457,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1487,47 +1487,47 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1537,12 +1537,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1562,22 +1562,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1587,47 +1587,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1667,17 +1667,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>partjoinmajority majority dissent joinmajority partjoindissent joindissent</t>
+          <t>dissent joindissent joinmajority majority partjoindissent partjoinmajority</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1687,32 +1687,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1752,32 +1752,32 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1787,47 +1787,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,12 +1837,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1862,12 +1862,12 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1897,12 +1897,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,37 +1937,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1987,22 +1987,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2037,42 +2037,42 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2087,22 +2087,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2112,22 +2112,22 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2147,22 +2147,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2187,27 +2187,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2237,37 +2237,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2312,12 +2312,12 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -2392,32 +2392,32 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2447,17 +2447,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,37 +2487,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2527,7 +2527,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent</t>
         </is>
       </c>
     </row>
@@ -2537,12 +2537,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2557,17 +2557,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2622,12 +2622,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2647,17 +2647,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2747,32 +2747,32 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2787,42 +2787,42 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2862,7 +2862,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2872,12 +2872,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2912,22 +2912,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2937,17 +2937,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2987,47 +2987,47 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3047,37 +3047,37 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3102,32 +3102,32 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3137,17 +3137,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3162,22 +3162,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3187,22 +3187,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3212,22 +3212,22 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3247,22 +3247,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3272,7 +3272,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3307,22 +3307,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3337,12 +3337,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3362,22 +3362,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3412,22 +3412,22 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3437,12 +3437,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3452,32 +3452,32 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3537,12 +3537,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3587,22 +3587,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3647,7 +3647,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3687,12 +3687,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3702,22 +3702,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3737,12 +3737,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -3752,27 +3752,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3787,47 +3787,47 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3862,22 +3862,22 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3887,22 +3887,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3912,22 +3912,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3957,12 +3957,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3972,12 +3972,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3987,12 +3987,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4002,17 +4002,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -4027,7 +4027,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4047,7 +4047,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4102,32 +4102,32 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -4137,17 +4137,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4157,27 +4157,27 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4192,17 +4192,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4222,12 +4222,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4247,27 +4247,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -4292,22 +4292,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4337,7 +4337,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4397,7 +4397,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -4417,12 +4417,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4447,22 +4447,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4512,22 +4512,22 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -4572,7 +4572,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4587,22 +4587,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4612,22 +4612,22 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -4642,12 +4642,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -4687,27 +4687,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence partjoinmajority</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4717,17 +4717,17 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinconcurrencedissent joinmajority joinconcurrence</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority</t>
+          <t>concurrence concurrencedissent dissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4787,47 +4787,47 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4847,17 +4847,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4887,7 +4887,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence joinplurality partjoinplurality plurality joinconcurrence</t>
+          <t>concurrence joinconcurrence joinplurality partjoinconcurrence partjoinplurality plurality</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4907,7 +4907,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4922,7 +4922,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4997,17 +4997,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
